--- a/data/nomarat_darsi.xlsx
+++ b/data/nomarat_darsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\متون\New folder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4E7949-8CAF-4E4B-B704-DD7DF755FBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9210B836-CFCE-4B07-AB26-BCBE6779C293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DCF09317-D3C1-4922-A09C-5CC4773B1873}"/>
   </bookViews>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="42">
-  <si>
-    <t>صدرا</t>
-  </si>
-  <si>
-    <t>علی</t>
-  </si>
-  <si>
-    <t>ماهان</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
   <si>
     <t>هفته اول</t>
   </si>
@@ -60,9 +51,6 @@
   </si>
   <si>
     <t>نام دانش آموز</t>
-  </si>
-  <si>
-    <t>کامران</t>
   </si>
   <si>
     <t>محمد اسکندری</t>
@@ -515,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9AD28E-A7A9-4DC4-8CC8-58E1A8A39E89}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:A34"/>
+    <sheetView rightToLeft="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,24 +514,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -551,162 +539,267 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>41</v>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -716,10 +809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C70FA4-0A54-4A6D-8D64-FA9BC3C6E58C}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+    <sheetView rightToLeft="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,211 +820,282 @@
     <col min="1" max="2" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
         <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -943,192 +1107,300 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2060CAF6-24E1-4894-9CBD-5B543A81FA8B}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>41</v>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
